--- a/Project 4/results.xlsx
+++ b/Project 4/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/aggarw82_purdue_edu/Documents/Sem 3/CE 597/Projects/Project 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6E1A59-D1B1-467E-A7F8-F2E61BF321F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EE6E1A59-D1B1-467E-A7F8-F2E61BF321F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F604C341-0A62-41A9-B99B-97C81438B22B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,54 +78,54 @@
     <t>Row</t>
   </si>
   <si>
-    <t>Image 05</t>
+    <t>Point 05</t>
   </si>
   <si>
-    <t>Image 07</t>
+    <t>Point 07</t>
   </si>
   <si>
-    <t>Image 08</t>
+    <t>Point 08</t>
   </si>
   <si>
-    <t>Image 09</t>
+    <t>Point 09</t>
   </si>
   <si>
-    <t>Image 10</t>
+    <t>Point 10</t>
   </si>
   <si>
-    <t>Image 12</t>
+    <t>Point 12</t>
   </si>
   <si>
-    <t>Image 13</t>
+    <t>Point 13</t>
   </si>
   <si>
-    <t>Image 14</t>
+    <t>Point 14</t>
   </si>
   <si>
-    <t>Image 15</t>
+    <t>Point 15</t>
   </si>
   <si>
-    <t>Image 17</t>
+    <t>Point 17</t>
   </si>
   <si>
-    <t>Image 18</t>
+    <t>Point 18</t>
   </si>
   <si>
-    <t>Image 19</t>
+    <t>Point 19</t>
   </si>
   <si>
-    <t>Image 20</t>
+    <t>Point 20</t>
   </si>
   <si>
-    <t>Mean Square Error</t>
+    <t>Root Mean Square Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -181,19 +181,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -202,57 +202,243 @@
   </cellStyles>
   <dxfs count="49">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -271,7 +457,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -296,6 +482,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -314,7 +501,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -333,7 +520,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -352,7 +539,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -371,7 +558,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -390,8 +577,47 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -409,43 +635,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -463,7 +653,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -473,229 +663,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -712,8 +712,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G15" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:G14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowCount="1" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -723,17 +723,17 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Row" totalsRowLabel="Mean Square Error" dataDxfId="48"/>
-    <tableColumn id="2" name="XI" dataDxfId="47" totalsRowDxfId="39"/>
-    <tableColumn id="3" name="error BASC XI" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Row" totalsRowLabel="Root Mean Square Error" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="XI" dataDxfId="45" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="error BASC XI" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="16">
       <totalsRowFormula array="1">1/13*SUM(POWER(C2:C14,2))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="YI" dataDxfId="45" totalsRowDxfId="37"/>
-    <tableColumn id="5" name="error BASC YI" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="36">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="YI" dataDxfId="43" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="error BASC YI" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="14">
       <totalsRowFormula array="1">1/13*SUM(POWER(E2:E14,2))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="ZI" dataDxfId="43" totalsRowDxfId="35"/>
-    <tableColumn id="7" name="error BASC ZI" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ZI" dataDxfId="41" totalsRowDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="error BASC ZI" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="12">
       <totalsRowFormula array="1">1/13*SUM(POWER(G2:G14,2))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -742,8 +742,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G15" totalsRowCount="1" headerRowDxfId="24" dataDxfId="25" totalsRowDxfId="13" tableBorderDxfId="33">
-  <autoFilter ref="A1:G14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:G15" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="36" tableBorderDxfId="37">
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -753,17 +753,17 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Row" totalsRowLabel="Mean Square Error" dataDxfId="32"/>
-    <tableColumn id="2" name="XI" dataDxfId="31" totalsRowDxfId="12"/>
-    <tableColumn id="3" name="error BASC XI" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Row" totalsRowLabel="Root Mean Square Error" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="XI" dataDxfId="34" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="error BASC XI" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="10">
       <totalsRowFormula array="1">1/13*SUM(POWER(C2:C14,2))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="YI" dataDxfId="29" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="error BASC YI" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="9">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="YI" dataDxfId="32" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="error BASC YI" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="8">
       <totalsRowFormula array="1">1/13*SUM(POWER(E2:E14,2))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="ZI" dataDxfId="27" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="error BASC ZI" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="7">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ZI" dataDxfId="30" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="error BASC ZI" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="6">
       <totalsRowFormula array="1">1/13*SUM(POWER(G2:G14,2))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -772,8 +772,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G15" totalsRowCount="1" headerRowDxfId="14" dataDxfId="15" totalsRowDxfId="6" tableBorderDxfId="23">
-  <autoFilter ref="A1:G14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:G15" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="25" tableBorderDxfId="26">
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -783,17 +783,17 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Row" totalsRowLabel="Mean Square Error" dataDxfId="22"/>
-    <tableColumn id="2" name="XI" dataDxfId="21" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="error BASC XI" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Row" totalsRowLabel="Root Mean Square Error" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="XI" dataDxfId="23" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="error BASC XI" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="4">
       <totalsRowFormula array="1">1/13*SUM(POWER(C2:C14,2))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="YI" dataDxfId="19" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="error BASC YI" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="2">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="YI" dataDxfId="21" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="error BASC YI" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="2">
       <totalsRowFormula array="1">1/13*SUM(POWER(E2:E14,2))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="ZI" dataDxfId="17" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="error BASC ZI" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ZI" dataDxfId="19" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="error BASC ZI" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="0">
       <totalsRowFormula array="1">1/13*SUM(POWER(G2:G14,2))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1097,11 +1097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:IV15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1468,16 +1468,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
@@ -1838,14 +1838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
